--- a/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC9FB00-BA48-D344-BA02-3F26C6F93A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4A906-51EA-7346-9013-536F99579A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5928,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -14715,7 +14715,7 @@
         <v>725</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>79</v>

--- a/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4A906-51EA-7346-9013-536F99579A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F5023B-3EF7-5348-B395-E7DBB110D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5591,7 +5591,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5601,57 +5601,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5928,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_qc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F5023B-3EF7-5348-B395-E7DBB110D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199D4A9-F60C-D549-9624-A066B91979CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="853">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3691,6 +3691,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4463,7 +4466,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4932,6 +4935,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5928,8 +5934,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12315,9 +12321,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13378,8 +13382,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>852</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13450,9 +13454,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72441,7 +72443,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="46UWgsSddblC679zPUuyQRY6jJ8drWn92TZm//8tp/JFHA11qbfrrBed94uMYOPR5Ha+6j6GYq7EEpsfgJ7sYQ==" saltValue="XWQNIN2iLz8n3Cc9Bq0ObA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
